--- a/Earned_Value_Analyse__EVA_.xlsx
+++ b/Earned_Value_Analyse__EVA_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni\4.Semester\Se 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2C8FAD-3F4A-4D21-A550-EF34FC651502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD65F4F-7BE0-493B-828C-FABB2D3B9C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="14400" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Angelegt</t>
   </si>
   <si>
-    <t>Umgesetzt</t>
-  </si>
-  <si>
     <t>Entworfen</t>
   </si>
   <si>
@@ -187,99 +184,43 @@
     <t>Summe (SP)</t>
   </si>
   <si>
-    <t>Geplant (PV)</t>
-  </si>
-  <si>
-    <t>Earned Value (EV)</t>
-  </si>
-  <si>
-    <r>
-      <t>PV (Planned Value):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Summe der geplanten Aufwände aller Stories = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>194 SP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EV (Earned Value):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Summe der erzielten Werte = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>158,5 SP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Erfüllungsgrad gesamt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 158,5 / 194 ≈ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>81,7 %</t>
-    </r>
+    <t>Erreichte Zustände</t>
+  </si>
+  <si>
+    <t>Angelegt, Analysiert, Qualität geprüft, Entworfen, Beauftragt, Umgesetzt, Getestet</t>
+  </si>
+  <si>
+    <t>Angelegt, Analysiert, Qualität geprüft, Entworfen, Beauftragt</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Angelegt, Analysiert, Qualität geprüft, Entworfen</t>
+  </si>
+  <si>
+    <t>Qualität geprüft</t>
+  </si>
+  <si>
+    <t>Angelegt, Analysiert, Qualität geprüft</t>
+  </si>
+  <si>
+    <t>155.6</t>
+  </si>
+  <si>
+    <t>Erfüllungsgrad</t>
+  </si>
+  <si>
+    <t>80.2 %</t>
+  </si>
+  <si>
+    <t>Planned Value  (PV)</t>
+  </si>
+  <si>
+    <t>Earned Value  (EV)</t>
   </si>
 </sst>
 </file>
@@ -311,27 +252,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -340,9 +266,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,6 +278,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,7 +602,7 @@
     <col min="6" max="6" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,473 +616,541 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13">
+    </row>
+    <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>50</v>
-      </c>
-      <c r="F18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19">
-        <v>75</v>
-      </c>
-      <c r="F19">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="E27" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="E28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="E29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="3">
-        <v>158.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E30" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E32" s="5" t="s">
-        <v>58</v>
-      </c>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E34" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="E34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
